--- a/info_without_indices.xlsx
+++ b/info_without_indices.xlsx
@@ -14,32 +14,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Rollno</t>
-  </si>
-  <si>
-    <t>AgNO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Roll No</t>
   </si>
   <si>
     <t>Remarks</t>
   </si>
   <si>
+    <t>GTC</t>
+  </si>
+  <si>
+    <t>Mabtoor</t>
+  </si>
+  <si>
+    <t>Muneeb</t>
+  </si>
+  <si>
+    <t>Mansoor</t>
+  </si>
+  <si>
+    <t>Moiz</t>
+  </si>
+  <si>
+    <t>Waheed</t>
+  </si>
+  <si>
+    <t>Waqas</t>
+  </si>
+  <si>
     <t>Horair</t>
   </si>
   <si>
-    <t>Waqas</t>
-  </si>
-  <si>
-    <t>Waheed</t>
-  </si>
-  <si>
-    <t>Mabtoor</t>
-  </si>
-  <si>
     <t>Hasnat</t>
   </si>
   <si>
@@ -49,25 +58,37 @@
     <t>Saleem</t>
   </si>
   <si>
+    <t>Umar</t>
+  </si>
+  <si>
+    <t>Zeeshan</t>
+  </si>
+  <si>
+    <t>Atif</t>
+  </si>
+  <si>
+    <t>Mrs Choudary</t>
+  </si>
+  <si>
+    <t>Atif Farid</t>
+  </si>
+  <si>
+    <t>Mirza Ali</t>
+  </si>
+  <si>
+    <t>Rizwan Ashraf</t>
+  </si>
+  <si>
+    <t>taqveem</t>
+  </si>
+  <si>
+    <t>Zaka</t>
+  </si>
+  <si>
+    <t>Snawra</t>
+  </si>
+  <si>
     <t>Good</t>
-  </si>
-  <si>
-    <t>To Good</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Not_Bad</t>
-  </si>
-  <si>
-    <t>Amazing</t>
-  </si>
-  <si>
-    <t>Powerfull</t>
-  </si>
-  <si>
-    <t>Splendid</t>
   </si>
 </sst>
 </file>
@@ -425,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,13 +471,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2331</v>
-      </c>
-      <c r="C2">
-        <v>8206</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -464,13 +485,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6453</v>
-      </c>
-      <c r="C3">
-        <v>8224</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -478,13 +499,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6346</v>
-      </c>
-      <c r="C4">
-        <v>8241</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -492,13 +513,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>7425</v>
-      </c>
-      <c r="C5">
-        <v>8208</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -506,13 +527,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4425</v>
-      </c>
-      <c r="C6">
-        <v>8205</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -520,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6443</v>
-      </c>
-      <c r="C7">
-        <v>8190</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -534,13 +555,195 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>7535</v>
-      </c>
-      <c r="C8">
-        <v>8232</v>
-      </c>
-      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2344</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>17</v>
+      </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>523</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>532</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>424</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
